--- a/raw_data/20200818_saline/20200818_Sensor3_Test_21.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_21.xlsx
@@ -1,870 +1,1286 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB84FA0-4D82-4F9A-84EA-36125AD8C335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>18556.123859</v>
+        <v>18556.123858999999</v>
       </c>
       <c r="B2" s="1">
-        <v>5.154479</v>
+        <v>5.1544790000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>1139.030000</v>
+        <v>1139.03</v>
       </c>
       <c r="D2" s="1">
-        <v>-256.049000</v>
+        <v>-256.04899999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>18566.149984</v>
       </c>
       <c r="G2" s="1">
-        <v>5.157264</v>
+        <v>5.1572639999999996</v>
       </c>
       <c r="H2" s="1">
-        <v>1160.680000</v>
+        <v>1160.68</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.726000</v>
+        <v>-214.726</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>18576.233651</v>
+        <v>18576.233650999999</v>
       </c>
       <c r="L2" s="1">
-        <v>5.160065</v>
+        <v>5.1600650000000003</v>
       </c>
       <c r="M2" s="1">
-        <v>1187.200000</v>
+        <v>1187.2</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.831000</v>
+        <v>-148.83099999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>18586.444757</v>
+        <v>18586.444757000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.162901</v>
+        <v>5.1629009999999997</v>
       </c>
       <c r="R2" s="1">
-        <v>1194.400000</v>
+        <v>1194.4000000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-126.792000</v>
+        <v>-126.792</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>18597.360230</v>
+        <v>18597.360229999998</v>
       </c>
       <c r="V2" s="1">
-        <v>5.165933</v>
+        <v>5.1659329999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1201.370000</v>
+        <v>1201.3699999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.099000</v>
+        <v>-106.099</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>18607.810921</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.168836</v>
+        <v>5.1688359999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1208.480000</v>
+        <v>1208.48</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.423200</v>
+        <v>-89.423199999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>18618.090038</v>
+        <v>18618.090037999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.171692</v>
+        <v>5.1716920000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1212.970000</v>
+        <v>1212.97</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.169600</v>
+        <v>-85.169600000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>18628.516414</v>
+        <v>18628.516414000002</v>
       </c>
       <c r="AK2" s="1">
         <v>5.174588</v>
       </c>
       <c r="AL2" s="1">
-        <v>1219.850000</v>
+        <v>1219.8499999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.740000</v>
+        <v>-88.74</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>18639.086159</v>
+        <v>18639.086158999999</v>
       </c>
       <c r="AP2" s="1">
         <v>5.177524</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1227.750000</v>
+        <v>1227.75</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.815000</v>
+        <v>-100.815</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>18649.669821</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.180464</v>
+        <v>5.1804639999999997</v>
       </c>
       <c r="AV2" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.161000</v>
+        <v>-120.161</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>18660.731076</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.183536</v>
+        <v>5.1835360000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1246.100000</v>
+        <v>1246.0999999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.679000</v>
+        <v>-137.679</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>18672.021012</v>
+        <v>18672.021012000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.186673</v>
+        <v>5.1866729999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1286.090000</v>
+        <v>1286.0899999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.383000</v>
+        <v>-219.38300000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>18683.071877</v>
+        <v>18683.071876999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.189742</v>
+        <v>5.1897419999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1355.190000</v>
+        <v>1355.19</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.339000</v>
+        <v>-355.339</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>18693.453144</v>
+        <v>18693.453143999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.192626</v>
+        <v>5.1926259999999997</v>
       </c>
       <c r="BP2" s="1">
-        <v>1468.350000</v>
+        <v>1468.35</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.197000</v>
+        <v>-577.197</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>18704.218314</v>
+        <v>18704.218314000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.195616</v>
+        <v>5.1956160000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1599.270000</v>
+        <v>1599.27</v>
       </c>
       <c r="BV2" s="1">
-        <v>-828.026000</v>
+        <v>-828.02599999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>18715.233963</v>
+        <v>18715.233962999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.198676</v>
+        <v>5.1986759999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1749.950000</v>
+        <v>1749.95</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1101.950000</v>
+        <v>-1101.95</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>18726.205470</v>
+        <v>18726.205470000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.201724</v>
+        <v>5.2017239999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>2167.950000</v>
+        <v>2167.9499999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1766.920000</v>
+        <v>-1766.92</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>18556.477506</v>
+        <v>18556.477505999999</v>
       </c>
       <c r="B3" s="1">
-        <v>5.154577</v>
+        <v>5.1545769999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>1139.220000</v>
+        <v>1139.22</v>
       </c>
       <c r="D3" s="1">
-        <v>-255.987000</v>
+        <v>-255.98699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>18566.491695</v>
+        <v>18566.491695000001</v>
       </c>
       <c r="G3" s="1">
-        <v>5.157359</v>
+        <v>5.1573589999999996</v>
       </c>
       <c r="H3" s="1">
-        <v>1161.220000</v>
+        <v>1161.22</v>
       </c>
       <c r="I3" s="1">
-        <v>-214.488000</v>
+        <v>-214.488</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>18576.615042</v>
+        <v>18576.615042000001</v>
       </c>
       <c r="L3" s="1">
-        <v>5.160171</v>
+        <v>5.1601710000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1186.800000</v>
+        <v>1186.8</v>
       </c>
       <c r="N3" s="1">
-        <v>-148.734000</v>
+        <v>-148.73400000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>18586.858917</v>
+        <v>18586.858917000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.163016</v>
+        <v>5.1630159999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>1194.440000</v>
+        <v>1194.44</v>
       </c>
       <c r="S3" s="1">
-        <v>-126.759000</v>
+        <v>-126.759</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>18597.766935</v>
       </c>
       <c r="V3" s="1">
-        <v>5.166046</v>
+        <v>5.1660459999999997</v>
       </c>
       <c r="W3" s="1">
-        <v>1201.430000</v>
+        <v>1201.43</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.167000</v>
+        <v>-106.167</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>18607.920538</v>
+        <v>18607.920537999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.168867</v>
+        <v>5.1688669999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>1208.370000</v>
+        <v>1208.3699999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.469200</v>
+        <v>-89.469200000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>18618.462012</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.171795</v>
+        <v>5.1717950000000004</v>
       </c>
       <c r="AG3" s="1">
-        <v>1213.000000</v>
+        <v>1213</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.113600</v>
+        <v>-85.113600000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>18628.888911</v>
+        <v>18628.888910999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.174691</v>
+        <v>5.1746910000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1219.860000</v>
+        <v>1219.8599999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.722700</v>
+        <v>-88.722700000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>18639.482960</v>
+        <v>18639.482960000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>5.177634</v>
+        <v>5.1776340000000003</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1227.750000</v>
+        <v>1227.75</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.836000</v>
+        <v>-100.836</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>18650.407873</v>
@@ -873,255 +1289,255 @@
         <v>5.180669</v>
       </c>
       <c r="AV3" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.193000</v>
+        <v>-120.193</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>18661.475571</v>
+        <v>18661.475570999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.183743</v>
+        <v>5.1837429999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.688000</v>
+        <v>-137.68799999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>18672.406404</v>
+        <v>18672.406404000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>5.186780</v>
+        <v>5.1867799999999997</v>
       </c>
       <c r="BF3" s="1">
-        <v>1286.080000</v>
+        <v>1286.08</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.381000</v>
+        <v>-219.381</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>18683.456277</v>
+        <v>18683.456277000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.189849</v>
+        <v>5.1898489999999997</v>
       </c>
       <c r="BK3" s="1">
-        <v>1355.210000</v>
+        <v>1355.21</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.341000</v>
+        <v>-355.34100000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>18693.880695</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.192745</v>
+        <v>5.1927450000000004</v>
       </c>
       <c r="BP3" s="1">
-        <v>1468.320000</v>
+        <v>1468.32</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-577.193000</v>
+        <v>-577.19299999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>18704.958874</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.195822</v>
+        <v>5.1958219999999997</v>
       </c>
       <c r="BU3" s="1">
-        <v>1599.360000</v>
+        <v>1599.36</v>
       </c>
       <c r="BV3" s="1">
-        <v>-828.123000</v>
+        <v>-828.12300000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>18715.411072</v>
+        <v>18715.411071999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.198725</v>
+        <v>5.1987249999999996</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1749.920000</v>
+        <v>1749.92</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1102.010000</v>
+        <v>-1102.01</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>18726.516956</v>
+        <v>18726.516955999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.201810</v>
+        <v>5.20181</v>
       </c>
       <c r="CE3" s="1">
-        <v>2166.880000</v>
+        <v>2166.88</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1768.070000</v>
+        <v>-1768.07</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>18556.818754</v>
       </c>
       <c r="B4" s="1">
-        <v>5.154672</v>
+        <v>5.1546719999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>1139.200000</v>
+        <v>1139.2</v>
       </c>
       <c r="D4" s="1">
-        <v>-255.993000</v>
+        <v>-255.99299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>18566.917300</v>
+        <v>18566.917300000001</v>
       </c>
       <c r="G4" s="1">
-        <v>5.157477</v>
+        <v>5.1574770000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1160.150000</v>
+        <v>1160.1500000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-214.903000</v>
+        <v>-214.90299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>18577.037138</v>
       </c>
       <c r="L4" s="1">
-        <v>5.160288</v>
+        <v>5.1602880000000004</v>
       </c>
       <c r="M4" s="1">
-        <v>1186.990000</v>
+        <v>1186.99</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.903000</v>
+        <v>-148.90299999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>18587.207108</v>
+        <v>18587.207107999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.163113</v>
+        <v>5.1631130000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1194.460000</v>
+        <v>1194.46</v>
       </c>
       <c r="S4" s="1">
-        <v>-126.786000</v>
+        <v>-126.786</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>18598.110023</v>
+        <v>18598.110023000001</v>
       </c>
       <c r="V4" s="1">
-        <v>5.166142</v>
+        <v>5.1661419999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>1201.370000</v>
+        <v>1201.3699999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.218000</v>
+        <v>-106.218</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>18608.257818</v>
+        <v>18608.257817999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.168961</v>
+        <v>5.1689610000000004</v>
       </c>
       <c r="AB4" s="1">
-        <v>1208.500000</v>
+        <v>1208.5</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.521100</v>
+        <v>-89.521100000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>18618.802266</v>
+        <v>18618.802265999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.171890</v>
+        <v>5.1718900000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>1212.900000</v>
+        <v>1212.9000000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.144500</v>
+        <v>-85.144499999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>18629.586284</v>
+        <v>18629.586284000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.174885</v>
+        <v>5.1748849999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>1219.860000</v>
+        <v>1219.8599999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.731000</v>
+        <v>-88.730999999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>18640.202191</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.177834</v>
+        <v>5.1778339999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1227.730000</v>
+        <v>1227.73</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.803000</v>
+        <v>-100.803</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>18650.773888</v>
@@ -1130,345 +1546,345 @@
         <v>5.180771</v>
       </c>
       <c r="AV4" s="1">
-        <v>1237.710000</v>
+        <v>1237.71</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.192000</v>
+        <v>-120.19199999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>18661.852530</v>
+        <v>18661.85253</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5.183848</v>
+        <v>5.1838480000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1246.130000</v>
+        <v>1246.1300000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.695000</v>
+        <v>-137.69499999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>18672.766539</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.186880</v>
+        <v>5.1868800000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1286.090000</v>
+        <v>1286.0899999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.373000</v>
+        <v>-219.37299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>18684.128884</v>
+        <v>18684.128884000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.190036</v>
+        <v>5.1900360000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1355.220000</v>
+        <v>1355.22</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.344000</v>
+        <v>-355.34399999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>18694.606875</v>
+        <v>18694.606875000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.192946</v>
+        <v>5.1929460000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1468.370000</v>
+        <v>1468.37</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.185000</v>
+        <v>-577.18499999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>18705.085816</v>
+        <v>18705.085815999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.195857</v>
+        <v>5.1958570000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1599.420000</v>
+        <v>1599.42</v>
       </c>
       <c r="BV4" s="1">
-        <v>-828.191000</v>
+        <v>-828.19100000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>18715.858428</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.198850</v>
+        <v>5.1988500000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1749.880000</v>
+        <v>1749.88</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1102.200000</v>
+        <v>-1102.2</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>18727.051180</v>
+        <v>18727.051179999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>5.201959</v>
+        <v>5.2019590000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>2167.430000</v>
+        <v>2167.4299999999998</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1766.030000</v>
+        <v>-1766.03</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>18557.249740</v>
+        <v>18557.249739999999</v>
       </c>
       <c r="B5" s="1">
-        <v>5.154792</v>
+        <v>5.1547919999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>1139.150000</v>
+        <v>1139.1500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-256.155000</v>
+        <v>-256.15499999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>18567.181632</v>
       </c>
       <c r="G5" s="1">
-        <v>5.157550</v>
+        <v>5.1575499999999996</v>
       </c>
       <c r="H5" s="1">
-        <v>1161.240000</v>
+        <v>1161.24</v>
       </c>
       <c r="I5" s="1">
-        <v>-214.880000</v>
+        <v>-214.88</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>18577.335729</v>
+        <v>18577.335728999999</v>
       </c>
       <c r="L5" s="1">
-        <v>5.160371</v>
+        <v>5.1603709999999996</v>
       </c>
       <c r="M5" s="1">
-        <v>1187.370000</v>
+        <v>1187.3699999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-148.853000</v>
+        <v>-148.85300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>18587.547397</v>
+        <v>18587.547396999998</v>
       </c>
       <c r="Q5" s="1">
         <v>5.163208</v>
       </c>
       <c r="R5" s="1">
-        <v>1194.470000</v>
+        <v>1194.47</v>
       </c>
       <c r="S5" s="1">
-        <v>-126.827000</v>
+        <v>-126.827</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>18598.452901</v>
+        <v>18598.452901000001</v>
       </c>
       <c r="V5" s="1">
-        <v>5.166237</v>
+        <v>5.1662369999999997</v>
       </c>
       <c r="W5" s="1">
-        <v>1201.340000</v>
+        <v>1201.3399999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.182000</v>
+        <v>-106.182</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>18608.609315</v>
+        <v>18608.609315000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>5.169058</v>
+        <v>5.1690579999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>1208.460000</v>
+        <v>1208.46</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.485700</v>
+        <v>-89.485699999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>18619.487243</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.172080</v>
+        <v>5.1720800000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>1212.920000</v>
+        <v>1212.92</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.231600</v>
+        <v>-85.2316</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>18629.934509</v>
+        <v>18629.934508999999</v>
       </c>
       <c r="AK5" s="1">
         <v>5.174982</v>
       </c>
       <c r="AL5" s="1">
-        <v>1219.860000</v>
+        <v>1219.8599999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.743100</v>
+        <v>-88.743099999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>18640.562750</v>
+        <v>18640.562750000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.177934</v>
+        <v>5.1779339999999996</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1227.760000</v>
+        <v>1227.76</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.810000</v>
+        <v>-100.81</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>18651.138944</v>
+        <v>18651.138943999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.180872</v>
+        <v>5.1808719999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1237.700000</v>
+        <v>1237.7</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.210000</v>
+        <v>-120.21</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>18662.193777</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.183943</v>
+        <v>5.1839430000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1246.100000</v>
+        <v>1246.0999999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.660000</v>
+        <v>-137.66</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>18673.437102</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.187066</v>
+        <v>5.1870659999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1286.100000</v>
+        <v>1286.0999999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.395000</v>
+        <v>-219.39500000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>18684.238468</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.190066</v>
+        <v>5.1900659999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1355.240000</v>
+        <v>1355.24</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.345000</v>
+        <v>-355.34500000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>18694.716982</v>
+        <v>18694.716982000002</v>
       </c>
       <c r="BO5" s="1">
         <v>5.192977</v>
       </c>
       <c r="BP5" s="1">
-        <v>1468.370000</v>
+        <v>1468.37</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.263000</v>
+        <v>-577.26300000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>18705.496504</v>
+        <v>18705.496503999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.195971</v>
+        <v>5.1959710000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1599.450000</v>
+        <v>1599.45</v>
       </c>
       <c r="BV5" s="1">
-        <v>-828.346000</v>
+        <v>-828.346</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>18716.314777</v>
@@ -1477,694 +1893,694 @@
         <v>5.198976</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1749.930000</v>
+        <v>1749.93</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1102.180000</v>
+        <v>-1102.18</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>18727.593771</v>
       </c>
       <c r="CD5" s="1">
-        <v>5.202109</v>
+        <v>5.2021090000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2165.290000</v>
+        <v>2165.29</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1768.310000</v>
+        <v>-1768.31</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>18557.519600</v>
+        <v>18557.5196</v>
       </c>
       <c r="B6" s="1">
-        <v>5.154867</v>
+        <v>5.1548670000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>1138.990000</v>
+        <v>1138.99</v>
       </c>
       <c r="D6" s="1">
-        <v>-256.256000</v>
+        <v>-256.25599999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>18567.527838</v>
+        <v>18567.527838000002</v>
       </c>
       <c r="G6" s="1">
-        <v>5.157647</v>
+        <v>5.1576469999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1160.500000</v>
+        <v>1160.5</v>
       </c>
       <c r="I6" s="1">
-        <v>-214.743000</v>
+        <v>-214.74299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>18577.680449</v>
+        <v>18577.680448999999</v>
       </c>
       <c r="L6" s="1">
-        <v>5.160467</v>
+        <v>5.1604669999999997</v>
       </c>
       <c r="M6" s="1">
-        <v>1187.090000</v>
+        <v>1187.0899999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.910000</v>
+        <v>-148.91</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>18587.904483</v>
+        <v>18587.904482999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.163307</v>
+        <v>5.1633069999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>1194.400000</v>
+        <v>1194.4000000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-126.810000</v>
+        <v>-126.81</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>18599.143363</v>
+        <v>18599.143362999999</v>
       </c>
       <c r="V6" s="1">
-        <v>5.166429</v>
+        <v>5.1664289999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1201.290000</v>
+        <v>1201.29</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.358000</v>
+        <v>-106.358</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>18609.302423</v>
+        <v>18609.302423000001</v>
       </c>
       <c r="AA6" s="1">
         <v>5.169251</v>
       </c>
       <c r="AB6" s="1">
-        <v>1208.360000</v>
+        <v>1208.3599999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.357600</v>
+        <v>-89.357600000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>18619.835433</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.172177</v>
+        <v>5.1721769999999996</v>
       </c>
       <c r="AG6" s="1">
-        <v>1212.870000</v>
+        <v>1212.8699999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.135100</v>
+        <v>-85.135099999999994</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>18630.269771</v>
+        <v>18630.269770999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.175075</v>
+        <v>5.1750749999999996</v>
       </c>
       <c r="AL6" s="1">
-        <v>1219.850000</v>
+        <v>1219.8499999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.739300</v>
+        <v>-88.7393</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>18640.921886</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.178034</v>
+        <v>5.1780340000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1227.730000</v>
+        <v>1227.73</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.800000</v>
+        <v>-100.8</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>18651.812015</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.181059</v>
+        <v>5.1810590000000003</v>
       </c>
       <c r="AV6" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.219000</v>
+        <v>-120.21899999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>18662.904544</v>
+        <v>18662.904544000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.184140</v>
+        <v>5.1841400000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1246.120000</v>
+        <v>1246.1199999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.656000</v>
+        <v>-137.65600000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>18673.874593</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.187187</v>
+        <v>5.1871869999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1286.080000</v>
+        <v>1286.08</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.351000</v>
+        <v>-219.351</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>18684.606003</v>
+        <v>18684.606003000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.190168</v>
+        <v>5.1901679999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1355.220000</v>
+        <v>1355.22</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.358000</v>
+        <v>-355.358</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>18695.118215</v>
+        <v>18695.118214999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.193088</v>
+        <v>5.1930880000000004</v>
       </c>
       <c r="BP6" s="1">
-        <v>1468.360000</v>
+        <v>1468.36</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.225000</v>
+        <v>-577.22500000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>18705.929015</v>
+        <v>18705.929015000002</v>
       </c>
       <c r="BT6" s="1">
         <v>5.196091</v>
       </c>
       <c r="BU6" s="1">
-        <v>1599.410000</v>
+        <v>1599.41</v>
       </c>
       <c r="BV6" s="1">
-        <v>-828.493000</v>
+        <v>-828.49300000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>18716.765113</v>
+        <v>18716.765113000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>5.199101</v>
+        <v>5.1991009999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1749.940000</v>
+        <v>1749.94</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1102.020000</v>
+        <v>-1102.02</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>18728.128991</v>
+        <v>18728.128991000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.202258</v>
+        <v>5.2022579999999996</v>
       </c>
       <c r="CE6" s="1">
-        <v>2167.900000</v>
+        <v>2167.9</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1767.600000</v>
+        <v>-1767.6</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>18557.860315</v>
+        <v>18557.860315000002</v>
       </c>
       <c r="B7" s="1">
-        <v>5.154961</v>
+        <v>5.1549610000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1139.010000</v>
+        <v>1139.01</v>
       </c>
       <c r="D7" s="1">
-        <v>-256.033000</v>
+        <v>-256.03300000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>18567.872094</v>
+        <v>18567.872093999998</v>
       </c>
       <c r="G7" s="1">
-        <v>5.157742</v>
+        <v>5.1577419999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1159.380000</v>
+        <v>1159.3800000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-214.565000</v>
+        <v>-214.565</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>18578.027652</v>
+        <v>18578.027652000001</v>
       </c>
       <c r="L7" s="1">
-        <v>5.160563</v>
+        <v>5.1605629999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1187.310000</v>
+        <v>1187.31</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.587000</v>
+        <v>-148.58699999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>18588.601363</v>
+        <v>18588.601363000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.163500</v>
+        <v>5.1635</v>
       </c>
       <c r="R7" s="1">
-        <v>1194.390000</v>
+        <v>1194.3900000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-126.803000</v>
+        <v>-126.803</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>18599.483124</v>
+        <v>18599.483123999998</v>
       </c>
       <c r="V7" s="1">
-        <v>5.166523</v>
+        <v>5.1665229999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>1201.320000</v>
+        <v>1201.32</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.184000</v>
+        <v>-106.184</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>18609.655046</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.169349</v>
+        <v>5.1693490000000004</v>
       </c>
       <c r="AB7" s="1">
-        <v>1208.440000</v>
+        <v>1208.44</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.394000</v>
+        <v>-89.394000000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>18620.179657</v>
+        <v>18620.179657000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.172272</v>
+        <v>5.1722720000000004</v>
       </c>
       <c r="AG7" s="1">
-        <v>1212.930000</v>
+        <v>1212.93</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.193700</v>
+        <v>-85.193700000000007</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>18630.929946</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.175258</v>
+        <v>5.1752580000000004</v>
       </c>
       <c r="AL7" s="1">
-        <v>1219.870000</v>
+        <v>1219.8699999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.761900</v>
+        <v>-88.761899999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>18641.585004</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.178218</v>
+        <v>5.1782180000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1227.730000</v>
+        <v>1227.73</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.806000</v>
+        <v>-100.806</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>18652.250512</v>
+        <v>18652.250511999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.181181</v>
+        <v>5.1811809999999996</v>
       </c>
       <c r="AV7" s="1">
-        <v>1237.670000</v>
+        <v>1237.67</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.193000</v>
+        <v>-120.193</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>18663.270095</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.184242</v>
+        <v>5.1842420000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1246.100000</v>
+        <v>1246.0999999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.693000</v>
+        <v>-137.69300000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>18674.238161</v>
+        <v>18674.238161000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.187288</v>
+        <v>5.1872879999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1286.070000</v>
+        <v>1286.07</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.388000</v>
+        <v>-219.38800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>18684.978034</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.190272</v>
+        <v>5.1902720000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1355.230000</v>
+        <v>1355.23</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.362000</v>
+        <v>-355.36200000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>18695.516997</v>
+        <v>18695.516996999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.193199</v>
+        <v>5.1931989999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1468.380000</v>
+        <v>1468.38</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.232000</v>
+        <v>-577.23199999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>18706.352599</v>
+        <v>18706.352599000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.196209</v>
+        <v>5.1962089999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>1599.500000</v>
+        <v>1599.5</v>
       </c>
       <c r="BV7" s="1">
-        <v>-828.535000</v>
+        <v>-828.53499999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>18717.221432</v>
+        <v>18717.221431999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.199228</v>
+        <v>5.1992279999999997</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1750.040000</v>
+        <v>1750.04</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1102.130000</v>
+        <v>-1102.1300000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>18728.672074</v>
+        <v>18728.672073999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.202409</v>
+        <v>5.2024090000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>2166.220000</v>
+        <v>2166.2199999999998</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1766.350000</v>
+        <v>-1766.35</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>18558.201562</v>
+        <v>18558.201561999998</v>
       </c>
       <c r="B8" s="1">
-        <v>5.155056</v>
+        <v>5.1550560000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1139.080000</v>
+        <v>1139.08</v>
       </c>
       <c r="D8" s="1">
-        <v>-256.340000</v>
+        <v>-256.33999999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>18568.565502</v>
+        <v>18568.565502000001</v>
       </c>
       <c r="G8" s="1">
-        <v>5.157935</v>
+        <v>5.1579350000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>1159.480000</v>
+        <v>1159.48</v>
       </c>
       <c r="I8" s="1">
-        <v>-214.226000</v>
+        <v>-214.226</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>18578.719569</v>
+        <v>18578.719569000001</v>
       </c>
       <c r="L8" s="1">
         <v>5.160755</v>
       </c>
       <c r="M8" s="1">
-        <v>1186.920000</v>
+        <v>1186.92</v>
       </c>
       <c r="N8" s="1">
-        <v>-148.641000</v>
+        <v>-148.64099999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>18588.951042</v>
+        <v>18588.951042000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.163598</v>
+        <v>5.1635980000000004</v>
       </c>
       <c r="R8" s="1">
-        <v>1194.420000</v>
+        <v>1194.42</v>
       </c>
       <c r="S8" s="1">
-        <v>-126.761000</v>
+        <v>-126.761</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>18599.827315</v>
+        <v>18599.827314999999</v>
       </c>
       <c r="V8" s="1">
-        <v>5.166619</v>
+        <v>5.1666189999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1201.310000</v>
+        <v>1201.31</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.154000</v>
+        <v>-106.154</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>18610.004726</v>
+        <v>18610.004725999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.169446</v>
+        <v>5.1694459999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1208.310000</v>
+        <v>1208.31</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.353700</v>
+        <v>-89.353700000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>18620.826936</v>
+        <v>18620.826936000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.172452</v>
+        <v>5.1724519999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1212.910000</v>
+        <v>1212.9100000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-84.976600</v>
+        <v>-84.976600000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>18631.332233</v>
+        <v>18631.332233000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.175370</v>
+        <v>5.17537</v>
       </c>
       <c r="AL8" s="1">
-        <v>1219.860000</v>
+        <v>1219.8599999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.726800</v>
+        <v>-88.726799999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>18642.039454</v>
+        <v>18642.039454000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.178344</v>
+        <v>5.1783440000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1227.740000</v>
+        <v>1227.74</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.799000</v>
+        <v>-100.79900000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>18652.614079</v>
+        <v>18652.614078999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.181282</v>
+        <v>5.1812820000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.179000</v>
+        <v>-120.179</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>18663.629695</v>
@@ -2173,270 +2589,270 @@
         <v>5.184342</v>
       </c>
       <c r="BA8" s="1">
-        <v>1246.130000</v>
+        <v>1246.1300000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.688000</v>
+        <v>-137.68799999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>18674.597729</v>
+        <v>18674.597729000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.187388</v>
+        <v>5.1873880000000003</v>
       </c>
       <c r="BF8" s="1">
-        <v>1286.060000</v>
+        <v>1286.06</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.388000</v>
+        <v>-219.38800000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>18685.398116</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.190388</v>
+        <v>5.1903879999999996</v>
       </c>
       <c r="BK8" s="1">
-        <v>1355.240000</v>
+        <v>1355.24</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.356000</v>
+        <v>-355.35599999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>18695.937642</v>
+        <v>18695.937642000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.193316</v>
+        <v>5.1933160000000003</v>
       </c>
       <c r="BP8" s="1">
-        <v>1468.310000</v>
+        <v>1468.31</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-577.220000</v>
+        <v>-577.22</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>18706.767254</v>
+        <v>18706.767253999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.196324</v>
+        <v>5.1963239999999997</v>
       </c>
       <c r="BU8" s="1">
-        <v>1599.290000</v>
+        <v>1599.29</v>
       </c>
       <c r="BV8" s="1">
-        <v>-828.613000</v>
+        <v>-828.61300000000006</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>18717.667831</v>
+        <v>18717.667830999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.199352</v>
+        <v>5.1993520000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1749.980000</v>
+        <v>1749.98</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1102.240000</v>
+        <v>-1102.24</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>18729.211263</v>
+        <v>18729.211263000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.202559</v>
+        <v>5.2025589999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2166.470000</v>
+        <v>2166.4699999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1768.410000</v>
+        <v>-1768.41</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>18558.882107</v>
+        <v>18558.882107000001</v>
       </c>
       <c r="B9" s="1">
-        <v>5.155245</v>
+        <v>5.1552449999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1139.190000</v>
+        <v>1139.19</v>
       </c>
       <c r="D9" s="1">
-        <v>-255.939000</v>
+        <v>-255.93899999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>18568.908733</v>
       </c>
       <c r="G9" s="1">
-        <v>5.158030</v>
+        <v>5.1580300000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1160.370000</v>
+        <v>1160.3699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-213.911000</v>
+        <v>-213.911</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>18579.075695</v>
       </c>
       <c r="L9" s="1">
-        <v>5.160854</v>
+        <v>5.1608539999999996</v>
       </c>
       <c r="M9" s="1">
-        <v>1186.720000</v>
+        <v>1186.72</v>
       </c>
       <c r="N9" s="1">
-        <v>-148.414000</v>
+        <v>-148.41399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>18589.299729</v>
+        <v>18589.299728999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.163694</v>
+        <v>5.1636939999999996</v>
       </c>
       <c r="R9" s="1">
-        <v>1194.450000</v>
+        <v>1194.45</v>
       </c>
       <c r="S9" s="1">
-        <v>-126.761000</v>
+        <v>-126.761</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>18600.476579</v>
+        <v>18600.476578999998</v>
       </c>
       <c r="V9" s="1">
-        <v>5.166799</v>
+        <v>5.1667990000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1201.290000</v>
+        <v>1201.29</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.203000</v>
+        <v>-106.203</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>18610.657957</v>
+        <v>18610.657956999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.169627</v>
+        <v>5.1696270000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1208.560000</v>
+        <v>1208.56</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.418600</v>
+        <v>-89.418599999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>18621.210378</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.172558</v>
+        <v>5.1725580000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>1212.880000</v>
+        <v>1212.8800000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.131400</v>
+        <v>-85.131399999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>18631.677947</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.175466</v>
+        <v>5.1754660000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1219.840000</v>
+        <v>1219.8399999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.729300</v>
+        <v>-88.729299999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>18642.397483</v>
+        <v>18642.397483000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.178444</v>
+        <v>5.1784439999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1227.760000</v>
+        <v>1227.76</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.824000</v>
+        <v>-100.824</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>18652.977149</v>
+        <v>18652.977148999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.181383</v>
+        <v>5.1813830000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.176000</v>
+        <v>-120.176</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>18664.049315</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.184458</v>
+        <v>5.1844580000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1246.120000</v>
+        <v>1246.1199999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.675000</v>
+        <v>-137.67500000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>18675.020848</v>
@@ -2445,135 +2861,135 @@
         <v>5.187506</v>
       </c>
       <c r="BF9" s="1">
-        <v>1286.090000</v>
+        <v>1286.0899999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.393000</v>
+        <v>-219.393</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>18685.731922</v>
+        <v>18685.731921999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.190481</v>
+        <v>5.1904810000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1355.210000</v>
+        <v>1355.21</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.369000</v>
+        <v>-355.36900000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>18696.393428</v>
+        <v>18696.393427999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.193443</v>
+        <v>5.1934430000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1468.340000</v>
+        <v>1468.34</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-577.229000</v>
+        <v>-577.22900000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>18707.195797</v>
       </c>
       <c r="BT9" s="1">
-        <v>5.196443</v>
+        <v>5.1964430000000004</v>
       </c>
       <c r="BU9" s="1">
-        <v>1599.330000</v>
+        <v>1599.33</v>
       </c>
       <c r="BV9" s="1">
-        <v>-828.777000</v>
+        <v>-828.77700000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>18718.128120</v>
+        <v>18718.128120000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.199480</v>
+        <v>5.1994800000000003</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1750.060000</v>
+        <v>1750.06</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1102.240000</v>
+        <v>-1102.24</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>18729.753390</v>
+        <v>18729.753390000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.202709</v>
+        <v>5.2027089999999996</v>
       </c>
       <c r="CE9" s="1">
-        <v>2165.590000</v>
+        <v>2165.59</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1766.980000</v>
+        <v>-1766.98</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>18559.232747</v>
+        <v>18559.232746999998</v>
       </c>
       <c r="B10" s="1">
-        <v>5.155342</v>
+        <v>5.1553420000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1138.970000</v>
+        <v>1138.97</v>
       </c>
       <c r="D10" s="1">
-        <v>-256.061000</v>
+        <v>-256.06099999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>18569.256396</v>
+        <v>18569.256396000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5.158127</v>
+        <v>5.1581270000000004</v>
       </c>
       <c r="H10" s="1">
-        <v>1160.340000</v>
+        <v>1160.3399999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-214.584000</v>
+        <v>-214.584</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>18579.725485</v>
+        <v>18579.725484999999</v>
       </c>
       <c r="L10" s="1">
         <v>5.161035</v>
       </c>
       <c r="M10" s="1">
-        <v>1186.910000</v>
+        <v>1186.9100000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.664000</v>
+        <v>-148.66399999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>18589.951009</v>
@@ -2582,148 +2998,148 @@
         <v>5.163875</v>
       </c>
       <c r="R10" s="1">
-        <v>1194.390000</v>
+        <v>1194.3900000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-126.825000</v>
+        <v>-126.825</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>18600.858002</v>
+        <v>18600.858002000001</v>
       </c>
       <c r="V10" s="1">
-        <v>5.166905</v>
+        <v>5.1669049999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1201.290000</v>
+        <v>1201.29</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.200000</v>
+        <v>-106.2</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>18611.050790</v>
+        <v>18611.050790000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.169736</v>
+        <v>5.1697360000000003</v>
       </c>
       <c r="AB10" s="1">
-        <v>1208.450000</v>
+        <v>1208.45</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.283400</v>
+        <v>-89.2834</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>18621.554071</v>
+        <v>18621.554070999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.172654</v>
+        <v>5.1726539999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>1212.940000</v>
+        <v>1212.94</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.087400</v>
+        <v>-85.087400000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>18632.023145</v>
+        <v>18632.023144999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.175562</v>
+        <v>5.1755620000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>1219.870000</v>
+        <v>1219.8699999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.761500</v>
+        <v>-88.761499999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>18642.757088</v>
+        <v>18642.757087999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.178544</v>
+        <v>5.1785439999999996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1227.740000</v>
+        <v>1227.74</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.814000</v>
+        <v>-100.81399999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>18653.391774</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.181498</v>
+        <v>5.1814980000000004</v>
       </c>
       <c r="AV10" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.195000</v>
+        <v>-120.19499999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>18664.351376</v>
+        <v>18664.351375999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.184542</v>
+        <v>5.1845420000000004</v>
       </c>
       <c r="BA10" s="1">
-        <v>1246.140000</v>
+        <v>1246.1400000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.675000</v>
+        <v>-137.67500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>18675.320433</v>
+        <v>18675.320433000001</v>
       </c>
       <c r="BE10" s="1">
         <v>5.187589</v>
       </c>
       <c r="BF10" s="1">
-        <v>1286.090000</v>
+        <v>1286.0899999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.353000</v>
+        <v>-219.35300000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>18686.129714</v>
+        <v>18686.129713999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.190592</v>
+        <v>5.1905919999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1355.200000</v>
+        <v>1355.2</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.355000</v>
+        <v>-355.35500000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>18696.753557</v>
@@ -2732,512 +3148,512 @@
         <v>5.193543</v>
       </c>
       <c r="BP10" s="1">
-        <v>1468.320000</v>
+        <v>1468.32</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.182000</v>
+        <v>-577.18200000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>18707.624837</v>
+        <v>18707.624836999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.196562</v>
+        <v>5.1965620000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1599.170000</v>
+        <v>1599.17</v>
       </c>
       <c r="BV10" s="1">
-        <v>-828.792000</v>
+        <v>-828.79200000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>18718.574551</v>
+        <v>18718.574551000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.199604</v>
+        <v>5.1996039999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1750.030000</v>
+        <v>1750.03</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1102.090000</v>
+        <v>-1102.0899999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>18730.305400</v>
+        <v>18730.305400000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>5.202863</v>
+        <v>5.2028629999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>2167.870000</v>
+        <v>2167.87</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1767.730000</v>
+        <v>-1767.73</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>18559.570060</v>
+        <v>18559.570059999998</v>
       </c>
       <c r="B11" s="1">
-        <v>5.155436</v>
+        <v>5.1554359999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1139.200000</v>
+        <v>1139.2</v>
       </c>
       <c r="D11" s="1">
-        <v>-256.110000</v>
+        <v>-256.11</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>18569.902187</v>
       </c>
       <c r="G11" s="1">
-        <v>5.158306</v>
+        <v>5.1583059999999996</v>
       </c>
       <c r="H11" s="1">
-        <v>1159.670000</v>
+        <v>1159.67</v>
       </c>
       <c r="I11" s="1">
-        <v>-213.866000</v>
+        <v>-213.86600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>18580.109389</v>
+        <v>18580.109389000001</v>
       </c>
       <c r="L11" s="1">
-        <v>5.161141</v>
+        <v>5.1611409999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>1186.830000</v>
+        <v>1186.83</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.807000</v>
+        <v>-148.80699999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>18590.344099</v>
+        <v>18590.344099000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.163984</v>
+        <v>5.1639840000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1194.410000</v>
+        <v>1194.4100000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-126.791000</v>
+        <v>-126.791</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>18601.201761</v>
       </c>
       <c r="V11" s="1">
-        <v>5.167000</v>
+        <v>5.1669999999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1201.340000</v>
+        <v>1201.3399999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.192000</v>
+        <v>-106.19199999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>18611.398982</v>
+        <v>18611.398981999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.169833</v>
+        <v>5.1698329999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.378700</v>
+        <v>-89.378699999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>18621.895814</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.172749</v>
+        <v>5.1727489999999996</v>
       </c>
       <c r="AG11" s="1">
-        <v>1212.950000</v>
+        <v>1212.95</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.190700</v>
+        <v>-85.190700000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>18632.436297</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.175677</v>
+        <v>5.1756770000000003</v>
       </c>
       <c r="AL11" s="1">
-        <v>1219.880000</v>
+        <v>1219.8800000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.756600</v>
+        <v>-88.756600000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>18643.173690</v>
+        <v>18643.17369</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.178659</v>
+        <v>5.1786589999999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1227.740000</v>
+        <v>1227.74</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.788000</v>
+        <v>-100.788</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>18653.706236</v>
+        <v>18653.706236000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.181585</v>
+        <v>5.1815850000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.213000</v>
+        <v>-120.21299999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>18664.706014</v>
+        <v>18664.706013999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.184641</v>
+        <v>5.1846410000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1246.120000</v>
+        <v>1246.1199999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.680000</v>
+        <v>-137.68</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>18675.683968</v>
+        <v>18675.683968000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.187690</v>
+        <v>5.1876899999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1286.080000</v>
+        <v>1286.08</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.384000</v>
+        <v>-219.38399999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>18686.504724</v>
+        <v>18686.504723999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>5.190696</v>
       </c>
       <c r="BK11" s="1">
-        <v>1355.220000</v>
+        <v>1355.22</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.333000</v>
+        <v>-355.33300000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>18697.571922</v>
+        <v>18697.571921999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.193770</v>
+        <v>5.1937699999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1468.380000</v>
+        <v>1468.38</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-577.271000</v>
+        <v>-577.27099999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>18708.050900</v>
+        <v>18708.050899999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.196681</v>
+        <v>5.1966809999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1599.140000</v>
+        <v>1599.14</v>
       </c>
       <c r="BV11" s="1">
-        <v>-828.853000</v>
+        <v>-828.85299999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>18718.995656</v>
+        <v>18718.995655999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.199721</v>
+        <v>5.1997210000000003</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1749.960000</v>
+        <v>1749.96</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1102.130000</v>
+        <v>-1102.1300000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>18730.831677</v>
+        <v>18730.831676999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.203009</v>
+        <v>5.2030089999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>2167.120000</v>
+        <v>2167.12</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1768.940000</v>
+        <v>-1768.94</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>18560.215353</v>
       </c>
       <c r="B12" s="1">
-        <v>5.155615</v>
+        <v>5.1556150000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1138.980000</v>
+        <v>1138.98</v>
       </c>
       <c r="D12" s="1">
-        <v>-256.455000</v>
+        <v>-256.45499999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>18570.289105</v>
       </c>
       <c r="G12" s="1">
-        <v>5.158414</v>
+        <v>5.1584139999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>1160.300000</v>
+        <v>1160.3</v>
       </c>
       <c r="I12" s="1">
-        <v>-214.700000</v>
+        <v>-214.7</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>18580.454607</v>
       </c>
       <c r="L12" s="1">
-        <v>5.161237</v>
+        <v>5.1612369999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1187.300000</v>
+        <v>1187.3</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.504000</v>
+        <v>-148.50399999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>18590.694177</v>
+        <v>18590.694177000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.164082</v>
+        <v>5.1640819999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>1194.390000</v>
+        <v>1194.3900000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-126.767000</v>
+        <v>-126.767</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>18601.547441</v>
+        <v>18601.547440999999</v>
       </c>
       <c r="V12" s="1">
-        <v>5.167097</v>
+        <v>5.1670970000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1201.280000</v>
+        <v>1201.28</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.184000</v>
+        <v>-106.184</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>18611.747205</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.169930</v>
+        <v>5.1699299999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1208.600000</v>
+        <v>1208.5999999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.380900</v>
+        <v>-89.380899999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>18622.308982</v>
+        <v>18622.308981999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.172864</v>
+        <v>5.1728639999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>1212.930000</v>
+        <v>1212.93</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.184300</v>
+        <v>-85.184299999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>18632.726456</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.175757</v>
+        <v>5.1757569999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1219.850000</v>
+        <v>1219.8499999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.719800</v>
+        <v>-88.719800000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>18643.477770</v>
+        <v>18643.477770000001</v>
       </c>
       <c r="AP12" s="1">
         <v>5.178744</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1227.740000</v>
+        <v>1227.74</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.804000</v>
+        <v>-100.804</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>18654.071292</v>
+        <v>18654.071292000001</v>
       </c>
       <c r="AU12" s="1">
         <v>5.181686</v>
       </c>
       <c r="AV12" s="1">
-        <v>1237.680000</v>
+        <v>1237.68</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.183000</v>
+        <v>-120.18300000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>18665.064656</v>
+        <v>18665.064655999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.184740</v>
+        <v>5.1847399999999997</v>
       </c>
       <c r="BA12" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.643000</v>
+        <v>-137.643</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>18676.044095</v>
+        <v>18676.044095000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.187790</v>
+        <v>5.1877899999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1286.070000</v>
+        <v>1286.07</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.391000</v>
+        <v>-219.39099999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>18687.256156</v>
+        <v>18687.256155999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.190904</v>
+        <v>5.1909039999999997</v>
       </c>
       <c r="BK12" s="1">
-        <v>1355.190000</v>
+        <v>1355.19</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.356000</v>
+        <v>-355.35599999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>18697.989586</v>
@@ -3246,318 +3662,318 @@
         <v>5.193886</v>
       </c>
       <c r="BP12" s="1">
-        <v>1468.340000</v>
+        <v>1468.34</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-577.206000</v>
+        <v>-577.20600000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>18708.468532</v>
+        <v>18708.468531999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.196797</v>
+        <v>5.1967970000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1599.060000</v>
+        <v>1599.06</v>
       </c>
       <c r="BV12" s="1">
-        <v>-828.818000</v>
+        <v>-828.81799999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>18719.417717</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.199838</v>
+        <v>5.1998379999999997</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1750.110000</v>
+        <v>1750.11</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1102.180000</v>
+        <v>-1102.18</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>18731.660005</v>
+        <v>18731.660005000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.203239</v>
+        <v>5.2032389999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2167.870000</v>
+        <v>2167.87</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1767.170000</v>
+        <v>-1767.17</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>18560.595751</v>
+        <v>18560.595751000001</v>
       </c>
       <c r="B13" s="1">
-        <v>5.155721</v>
+        <v>5.1557209999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>1138.830000</v>
+        <v>1138.83</v>
       </c>
       <c r="D13" s="1">
-        <v>-256.185000</v>
+        <v>-256.185</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>18570.634779</v>
       </c>
       <c r="G13" s="1">
-        <v>5.158510</v>
+        <v>5.1585099999999997</v>
       </c>
       <c r="H13" s="1">
-        <v>1159.680000</v>
+        <v>1159.68</v>
       </c>
       <c r="I13" s="1">
-        <v>-214.875000</v>
+        <v>-214.875</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>18580.801773</v>
+        <v>18580.801772999999</v>
       </c>
       <c r="L13" s="1">
-        <v>5.161334</v>
+        <v>5.1613340000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1187.010000</v>
+        <v>1187.01</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.817000</v>
+        <v>-148.81700000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>18591.040687</v>
+        <v>18591.040687000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.164178</v>
+        <v>5.1641779999999997</v>
       </c>
       <c r="R13" s="1">
-        <v>1194.420000</v>
+        <v>1194.42</v>
       </c>
       <c r="S13" s="1">
-        <v>-126.771000</v>
+        <v>-126.771</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>18601.969538</v>
+        <v>18601.969538000001</v>
       </c>
       <c r="V13" s="1">
-        <v>5.167214</v>
+        <v>5.1672140000000004</v>
       </c>
       <c r="W13" s="1">
-        <v>1201.410000</v>
+        <v>1201.4100000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.119000</v>
+        <v>-106.119</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>18612.168771</v>
+        <v>18612.168771000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.170047</v>
+        <v>5.1700470000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>1208.450000</v>
+        <v>1208.45</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.382500</v>
+        <v>-89.382499999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>18622.587238</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.172941</v>
+        <v>5.1729409999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1212.920000</v>
+        <v>1212.92</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.190400</v>
+        <v>-85.190399999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>18633.075673</v>
+        <v>18633.075672999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.175854</v>
+        <v>5.1758540000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1219.880000</v>
+        <v>1219.8800000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.720600</v>
+        <v>-88.720600000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>18643.841306</v>
+        <v>18643.841305999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.178845</v>
+        <v>5.1788449999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1227.740000</v>
+        <v>1227.74</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.828000</v>
+        <v>-100.828</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>18654.441803</v>
+        <v>18654.441803000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.181789</v>
+        <v>5.1817890000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1237.700000</v>
+        <v>1237.7</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.197000</v>
+        <v>-120.197</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>18665.784348</v>
+        <v>18665.784348000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.184940</v>
+        <v>5.1849400000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1246.140000</v>
+        <v>1246.1400000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.660000</v>
+        <v>-137.66</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>18676.762766</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.187990</v>
+        <v>5.1879900000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1286.100000</v>
+        <v>1286.0999999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.386000</v>
+        <v>-219.386</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>18687.633584</v>
+        <v>18687.633583999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.191009</v>
+        <v>5.1910090000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1355.220000</v>
+        <v>1355.22</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.370000</v>
+        <v>-355.37</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>18698.387381</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.193996</v>
+        <v>5.1939960000000003</v>
       </c>
       <c r="BP13" s="1">
-        <v>1468.400000</v>
+        <v>1468.4</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-577.235000</v>
+        <v>-577.23500000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>18708.894632</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.196915</v>
+        <v>5.1969149999999997</v>
       </c>
       <c r="BU13" s="1">
-        <v>1598.980000</v>
+        <v>1598.98</v>
       </c>
       <c r="BV13" s="1">
-        <v>-828.841000</v>
+        <v>-828.84100000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>18720.144357</v>
+        <v>18720.144357000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.200040</v>
+        <v>5.2000400000000004</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1749.910000</v>
+        <v>1749.91</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1102.220000</v>
+        <v>-1102.22</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>18731.898292</v>
+        <v>18731.898292000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.203305</v>
+        <v>5.2033050000000003</v>
       </c>
       <c r="CE13" s="1">
-        <v>2165.960000</v>
+        <v>2165.96</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1766.440000</v>
+        <v>-1766.44</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>18560.944935</v>
       </c>
@@ -3565,919 +3981,919 @@
         <v>5.155818</v>
       </c>
       <c r="C14" s="1">
-        <v>1139.060000</v>
+        <v>1139.06</v>
       </c>
       <c r="D14" s="1">
-        <v>-256.145000</v>
+        <v>-256.14499999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>18570.977514</v>
+        <v>18570.977513999998</v>
       </c>
       <c r="G14" s="1">
-        <v>5.158605</v>
+        <v>5.1586049999999997</v>
       </c>
       <c r="H14" s="1">
-        <v>1160.330000</v>
+        <v>1160.33</v>
       </c>
       <c r="I14" s="1">
-        <v>-214.657000</v>
+        <v>-214.65700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>18581.215436</v>
+        <v>18581.215435999999</v>
       </c>
       <c r="L14" s="1">
-        <v>5.161449</v>
+        <v>5.1614490000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1186.940000</v>
+        <v>1186.94</v>
       </c>
       <c r="N14" s="1">
-        <v>-148.808000</v>
+        <v>-148.80799999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>18591.460487</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.164295</v>
+        <v>5.1642950000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1194.450000</v>
+        <v>1194.45</v>
       </c>
       <c r="S14" s="1">
-        <v>-126.783000</v>
+        <v>-126.783</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>18602.257712</v>
+        <v>18602.257711999999</v>
       </c>
       <c r="V14" s="1">
-        <v>5.167294</v>
+        <v>5.1672940000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1201.410000</v>
+        <v>1201.4100000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.209000</v>
+        <v>-106.209</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>18612.441076</v>
+        <v>18612.441075999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.170123</v>
+        <v>5.1701230000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1208.500000</v>
+        <v>1208.5</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.394200</v>
+        <v>-89.394199999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>18622.929477</v>
+        <v>18622.929477000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.173036</v>
+        <v>5.1730359999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>1213.130000</v>
+        <v>1213.1300000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.145800</v>
+        <v>-85.145799999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>18633.427303</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.175952</v>
+        <v>5.1759519999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>1219.850000</v>
+        <v>1219.8499999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.741700</v>
+        <v>-88.741699999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>18644.199914</v>
+        <v>18644.199914000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.178944</v>
+        <v>5.1789440000000004</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1227.760000</v>
+        <v>1227.76</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.806000</v>
+        <v>-100.806</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>18655.169467</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.181992</v>
+        <v>5.1819920000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.191000</v>
+        <v>-120.191</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>18666.169707</v>
+        <v>18666.169707000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>5.185047</v>
       </c>
       <c r="BA14" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.648000</v>
+        <v>-137.648</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>18677.149182</v>
+        <v>18677.149182000001</v>
       </c>
       <c r="BE14" s="1">
         <v>5.188097</v>
       </c>
       <c r="BF14" s="1">
-        <v>1286.090000</v>
+        <v>1286.0899999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.397000</v>
+        <v>-219.39699999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>18688.008559</v>
+        <v>18688.008559000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5.191113</v>
+        <v>5.1911129999999996</v>
       </c>
       <c r="BK14" s="1">
-        <v>1355.220000</v>
+        <v>1355.22</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.354000</v>
+        <v>-355.35399999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>18699.110050</v>
+        <v>18699.110049999999</v>
       </c>
       <c r="BO14" s="1">
         <v>5.194197</v>
       </c>
       <c r="BP14" s="1">
-        <v>1468.350000</v>
+        <v>1468.35</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.202000</v>
+        <v>-577.202</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>18709.621268</v>
+        <v>18709.621267999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.197117</v>
+        <v>5.1971170000000004</v>
       </c>
       <c r="BU14" s="1">
-        <v>1598.890000</v>
+        <v>1598.89</v>
       </c>
       <c r="BV14" s="1">
-        <v>-828.786000</v>
+        <v>-828.78599999999994</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>18720.261908</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.200073</v>
+        <v>5.2000729999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1750.010000</v>
+        <v>1750.01</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1102.050000</v>
+        <v>-1102.05</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>18732.433268</v>
+        <v>18732.433268000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.203454</v>
+        <v>5.2034539999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>2167.010000</v>
+        <v>2167.0100000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1768.660000</v>
+        <v>-1768.66</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>18561.282214</v>
+        <v>18561.282213999999</v>
       </c>
       <c r="B15" s="1">
-        <v>5.155912</v>
+        <v>5.1559119999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>1138.940000</v>
+        <v>1138.94</v>
       </c>
       <c r="D15" s="1">
-        <v>-256.162000</v>
+        <v>-256.16199999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>18571.395873</v>
+        <v>18571.395873000001</v>
       </c>
       <c r="G15" s="1">
-        <v>5.158721</v>
+        <v>5.1587209999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1160.750000</v>
+        <v>1160.75</v>
       </c>
       <c r="I15" s="1">
-        <v>-214.606000</v>
+        <v>-214.60599999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>18581.515020</v>
+        <v>18581.515019999999</v>
       </c>
       <c r="L15" s="1">
-        <v>5.161532</v>
+        <v>5.1615320000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1186.980000</v>
+        <v>1186.98</v>
       </c>
       <c r="N15" s="1">
-        <v>-148.871000</v>
+        <v>-148.87100000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>18591.750958</v>
+        <v>18591.750958000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.164375</v>
+        <v>5.1643749999999997</v>
       </c>
       <c r="R15" s="1">
-        <v>1194.470000</v>
+        <v>1194.47</v>
       </c>
       <c r="S15" s="1">
-        <v>-126.820000</v>
+        <v>-126.82</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>18602.600944</v>
+        <v>18602.600944000002</v>
       </c>
       <c r="V15" s="1">
         <v>5.167389</v>
       </c>
       <c r="W15" s="1">
-        <v>1201.350000</v>
+        <v>1201.3499999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.149000</v>
+        <v>-106.149</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>18612.790259</v>
+        <v>18612.790259000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.170220</v>
+        <v>5.1702199999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>1208.450000</v>
+        <v>1208.45</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.436900</v>
+        <v>-89.436899999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>18623.274461</v>
+        <v>18623.274461000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.173132</v>
+        <v>5.1731319999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1212.900000</v>
+        <v>1212.9000000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.258800</v>
+        <v>-85.258799999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>18634.124182</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.176146</v>
+        <v>5.1761460000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1219.860000</v>
+        <v>1219.8599999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.735100</v>
+        <v>-88.735100000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>18644.924569</v>
+        <v>18644.924568999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.179146</v>
+        <v>5.1791460000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1227.730000</v>
+        <v>1227.73</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.798000</v>
+        <v>-100.798</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>18655.533002</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.182093</v>
+        <v>5.1820930000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.208000</v>
+        <v>-120.208</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>18666.547692</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.185152</v>
+        <v>5.1851520000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>1246.130000</v>
+        <v>1246.1300000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.683000</v>
+        <v>-137.68299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>18677.513213</v>
+        <v>18677.513212999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.188198</v>
+        <v>5.1881979999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1286.080000</v>
+        <v>1286.08</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.383000</v>
+        <v>-219.38300000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>18688.679151</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.191300</v>
+        <v>5.1913</v>
       </c>
       <c r="BK15" s="1">
-        <v>1355.190000</v>
+        <v>1355.19</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.329000</v>
+        <v>-355.32900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>18699.224592</v>
+        <v>18699.224591999999</v>
       </c>
       <c r="BO15" s="1">
         <v>5.194229</v>
       </c>
       <c r="BP15" s="1">
-        <v>1468.380000</v>
+        <v>1468.38</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-577.175000</v>
+        <v>-577.17499999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>18709.738789</v>
+        <v>18709.738788999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.197150</v>
+        <v>5.1971499999999997</v>
       </c>
       <c r="BU15" s="1">
-        <v>1598.790000</v>
+        <v>1598.79</v>
       </c>
       <c r="BV15" s="1">
-        <v>-828.907000</v>
+        <v>-828.90700000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>18720.696404</v>
+        <v>18720.696403999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.200193</v>
+        <v>5.2001929999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1749.830000</v>
+        <v>1749.83</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1102.150000</v>
+        <v>-1102.1500000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>18732.962468</v>
+        <v>18732.962468000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.203601</v>
+        <v>5.2036009999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2166.620000</v>
+        <v>2166.62</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1765.670000</v>
+        <v>-1765.67</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>18561.732583</v>
+        <v>18561.732583000001</v>
       </c>
       <c r="B16" s="1">
-        <v>5.156037</v>
+        <v>5.1560370000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>1139.290000</v>
+        <v>1139.29</v>
       </c>
       <c r="D16" s="1">
-        <v>-255.980000</v>
+        <v>-255.98</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>18571.670457</v>
       </c>
       <c r="G16" s="1">
-        <v>5.158797</v>
+        <v>5.1587969999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1160.380000</v>
+        <v>1160.3800000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-214.721000</v>
+        <v>-214.721</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>18581.859739</v>
       </c>
       <c r="L16" s="1">
-        <v>5.161628</v>
+        <v>5.1616280000000003</v>
       </c>
       <c r="M16" s="1">
-        <v>1186.940000</v>
+        <v>1186.94</v>
       </c>
       <c r="N16" s="1">
-        <v>-148.605000</v>
+        <v>-148.60499999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>18592.101630</v>
+        <v>18592.101630000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.164473</v>
+        <v>5.1644730000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1194.450000</v>
+        <v>1194.45</v>
       </c>
       <c r="S16" s="1">
-        <v>-126.834000</v>
+        <v>-126.834</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>18602.945664</v>
+        <v>18602.945663999999</v>
       </c>
       <c r="V16" s="1">
-        <v>5.167485</v>
+        <v>5.1674850000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1201.310000</v>
+        <v>1201.31</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.210000</v>
+        <v>-106.21</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>18613.490113</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.170414</v>
+        <v>5.1704140000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1208.430000</v>
+        <v>1208.43</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.370200</v>
+        <v>-89.370199999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>18623.964628</v>
+        <v>18623.964628000002</v>
       </c>
       <c r="AF16" s="1">
         <v>5.173324</v>
       </c>
       <c r="AG16" s="1">
-        <v>1212.890000</v>
+        <v>1212.8900000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.206000</v>
+        <v>-85.206000000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>18634.471879</v>
+        <v>18634.471879000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.176242</v>
+        <v>5.1762420000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1219.860000</v>
+        <v>1219.8599999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.763800</v>
+        <v>-88.763800000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>18645.282681</v>
+        <v>18645.282681000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.179245</v>
+        <v>5.1792449999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1227.740000</v>
+        <v>1227.74</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.808000</v>
+        <v>-100.80800000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>18655.895082</v>
+        <v>18655.895081999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.182193</v>
+        <v>5.1821929999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1237.660000</v>
+        <v>1237.6600000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.186000</v>
+        <v>-120.18600000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>18667.214778</v>
+        <v>18667.214778000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.185337</v>
+        <v>5.1853369999999996</v>
       </c>
       <c r="BA16" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.672000</v>
+        <v>-137.672</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>18678.169420</v>
+        <v>18678.169419999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.188380</v>
+        <v>5.1883800000000004</v>
       </c>
       <c r="BF16" s="1">
-        <v>1286.080000</v>
+        <v>1286.08</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.376000</v>
+        <v>-219.376</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>18688.793763</v>
+        <v>18688.793763000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.191332</v>
+        <v>5.1913320000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1355.200000</v>
+        <v>1355.2</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.339000</v>
+        <v>-355.339</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>18699.627377</v>
+        <v>18699.627377000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.194341</v>
+        <v>5.1943409999999997</v>
       </c>
       <c r="BP16" s="1">
-        <v>1468.350000</v>
+        <v>1468.35</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-577.250000</v>
+        <v>-577.25</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>18710.175299</v>
+        <v>18710.175298999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>5.197271</v>
+        <v>5.1972709999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1598.770000</v>
+        <v>1598.77</v>
       </c>
       <c r="BV16" s="1">
-        <v>-828.801000</v>
+        <v>-828.80100000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>18721.117507</v>
+        <v>18721.117506999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.200310</v>
+        <v>5.20031</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1750.010000</v>
+        <v>1750.01</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1102.090000</v>
+        <v>-1102.0899999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>18733.512537</v>
+        <v>18733.512536999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.203753</v>
+        <v>5.2037529999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2165.960000</v>
+        <v>2165.96</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1767.850000</v>
+        <v>-1767.85</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>18561.962231</v>
+        <v>18561.962231000001</v>
       </c>
       <c r="B17" s="1">
-        <v>5.156101</v>
+        <v>5.1561009999999996</v>
       </c>
       <c r="C17" s="1">
-        <v>1139.210000</v>
+        <v>1139.21</v>
       </c>
       <c r="D17" s="1">
-        <v>-255.973000</v>
+        <v>-255.97300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>18572.017657</v>
       </c>
       <c r="G17" s="1">
-        <v>5.158894</v>
+        <v>5.1588940000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1159.670000</v>
+        <v>1159.67</v>
       </c>
       <c r="I17" s="1">
-        <v>-214.542000</v>
+        <v>-214.542</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>18582.204493</v>
+        <v>18582.204493000001</v>
       </c>
       <c r="L17" s="1">
-        <v>5.161723</v>
+        <v>5.1617230000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>1186.960000</v>
+        <v>1186.96</v>
       </c>
       <c r="N17" s="1">
-        <v>-148.640000</v>
+        <v>-148.63999999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>18592.450813</v>
+        <v>18592.450812999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.164570</v>
+        <v>5.1645700000000003</v>
       </c>
       <c r="R17" s="1">
-        <v>1194.390000</v>
+        <v>1194.3900000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-126.829000</v>
+        <v>-126.82899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>18603.633155</v>
       </c>
       <c r="V17" s="1">
-        <v>5.167676</v>
+        <v>5.1676760000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1201.290000</v>
+        <v>1201.29</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.214000</v>
+        <v>-106.214</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>18613.835825</v>
+        <v>18613.835824999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.170510</v>
+        <v>5.1705100000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.421000</v>
+        <v>-89.421000000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>18624.304419</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.173418</v>
+        <v>5.1734179999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1213.260000</v>
+        <v>1213.26</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.120000</v>
+        <v>-85.12</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>18634.818582</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.176338</v>
+        <v>5.1763380000000003</v>
       </c>
       <c r="AL17" s="1">
-        <v>1219.870000</v>
+        <v>1219.8699999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.730900</v>
+        <v>-88.730900000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>18645.645255</v>
+        <v>18645.645254999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.179346</v>
+        <v>5.1793459999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1227.730000</v>
+        <v>1227.73</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.775000</v>
+        <v>-100.77500000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>18656.569176</v>
+        <v>18656.569176000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.182380</v>
+        <v>5.1823800000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>1237.710000</v>
+        <v>1237.71</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.211000</v>
+        <v>-120.211</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>18667.633403</v>
@@ -4486,1510 +4902,1510 @@
         <v>5.185454</v>
       </c>
       <c r="BA17" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.688000</v>
+        <v>-137.68799999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>18678.633675</v>
+        <v>18678.633675000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.188509</v>
+        <v>5.1885089999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1286.100000</v>
+        <v>1286.0999999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.386000</v>
+        <v>-219.386</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>18689.171181</v>
+        <v>18689.171181000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.191436</v>
+        <v>5.1914360000000004</v>
       </c>
       <c r="BK17" s="1">
-        <v>1355.240000</v>
+        <v>1355.24</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.400000</v>
+        <v>-355.4</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>18700.022656</v>
+        <v>18700.022656000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.194451</v>
+        <v>5.1944509999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1468.370000</v>
+        <v>1468.37</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-577.190000</v>
+        <v>-577.19000000000005</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>18710.607287</v>
+        <v>18710.607286999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.197391</v>
+        <v>5.1973909999999997</v>
       </c>
       <c r="BU17" s="1">
-        <v>1598.690000</v>
+        <v>1598.69</v>
       </c>
       <c r="BV17" s="1">
-        <v>-828.741000</v>
+        <v>-828.74099999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>18721.541092</v>
+        <v>18721.541091999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.200428</v>
+        <v>5.2004279999999996</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1750.120000</v>
+        <v>1750.12</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1102.230000</v>
+        <v>-1102.23</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>18734.054660</v>
+        <v>18734.054660000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.203904</v>
+        <v>5.2039039999999996</v>
       </c>
       <c r="CE17" s="1">
-        <v>2167.960000</v>
+        <v>2167.96</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1768.100000</v>
+        <v>-1768.1</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>18562.302505</v>
       </c>
       <c r="B18" s="1">
-        <v>5.156195</v>
+        <v>5.1561950000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>1139.040000</v>
+        <v>1139.04</v>
       </c>
       <c r="D18" s="1">
-        <v>-256.244000</v>
+        <v>-256.24400000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>18572.360361</v>
+        <v>18572.360360999999</v>
       </c>
       <c r="G18" s="1">
         <v>5.158989</v>
       </c>
       <c r="H18" s="1">
-        <v>1160.460000</v>
+        <v>1160.46</v>
       </c>
       <c r="I18" s="1">
-        <v>-214.151000</v>
+        <v>-214.15100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>18582.895386</v>
       </c>
       <c r="L18" s="1">
-        <v>5.161915</v>
+        <v>5.1619149999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>1186.740000</v>
+        <v>1186.74</v>
       </c>
       <c r="N18" s="1">
-        <v>-148.699000</v>
+        <v>-148.69900000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>18593.144011</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.164762</v>
+        <v>5.1647619999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>1194.390000</v>
+        <v>1194.3900000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-126.794000</v>
+        <v>-126.794</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>18603.976846</v>
+        <v>18603.976846000001</v>
       </c>
       <c r="V18" s="1">
-        <v>5.167771</v>
+        <v>5.1677710000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1201.310000</v>
+        <v>1201.31</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.140000</v>
+        <v>-106.14</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>18614.185536</v>
+        <v>18614.185536000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.170607</v>
+        <v>5.1706070000000004</v>
       </c>
       <c r="AB18" s="1">
-        <v>1208.400000</v>
+        <v>1208.4000000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.537600</v>
+        <v>-89.537599999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>18624.647618</v>
+        <v>18624.647617999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.173513</v>
+        <v>5.1735129999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1212.870000</v>
+        <v>1212.8699999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.173900</v>
+        <v>-85.173900000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>18635.473540</v>
+        <v>18635.473539999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.176520</v>
+        <v>5.17652</v>
       </c>
       <c r="AL18" s="1">
-        <v>1219.880000</v>
+        <v>1219.8800000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.754500</v>
+        <v>-88.754499999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>18646.101115</v>
+        <v>18646.101115000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.179473</v>
+        <v>5.1794729999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1227.740000</v>
+        <v>1227.74</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.822000</v>
+        <v>-100.822</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>18656.989752</v>
+        <v>18656.989752000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.182497</v>
+        <v>5.1824969999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>1237.710000</v>
+        <v>1237.71</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.177000</v>
+        <v>-120.17700000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>18668.008378</v>
+        <v>18668.008377999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.185558</v>
+        <v>5.1855580000000003</v>
       </c>
       <c r="BA18" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.685000</v>
+        <v>-137.685</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>18678.993275</v>
+        <v>18678.993275000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.188609</v>
+        <v>5.1886089999999996</v>
       </c>
       <c r="BF18" s="1">
-        <v>1286.080000</v>
+        <v>1286.08</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.374000</v>
+        <v>-219.374</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>18689.543181</v>
+        <v>18689.543181000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.191540</v>
+        <v>5.1915399999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1355.200000</v>
+        <v>1355.2</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.348000</v>
+        <v>-355.34800000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>18700.443262</v>
+        <v>18700.443262000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.194568</v>
+        <v>5.1945680000000003</v>
       </c>
       <c r="BP18" s="1">
-        <v>1468.410000</v>
+        <v>1468.41</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-577.155000</v>
+        <v>-577.15499999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>18711.017473</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.197505</v>
+        <v>5.1975049999999996</v>
       </c>
       <c r="BU18" s="1">
-        <v>1598.620000</v>
+        <v>1598.62</v>
       </c>
       <c r="BV18" s="1">
-        <v>-828.720000</v>
+        <v>-828.72</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>18721.965666</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.200546</v>
+        <v>5.2005460000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1749.980000</v>
+        <v>1749.98</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1102.010000</v>
+        <v>-1102.01</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>18734.595793</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.204054</v>
+        <v>5.2040540000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>2166.010000</v>
+        <v>2166.0100000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1766.080000</v>
+        <v>-1766.08</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>18562.987460</v>
+        <v>18562.98746</v>
       </c>
       <c r="B19" s="1">
-        <v>5.156385</v>
+        <v>5.1563850000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1139.170000</v>
+        <v>1139.17</v>
       </c>
       <c r="D19" s="1">
-        <v>-255.977000</v>
+        <v>-255.977</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>18573.048344</v>
+        <v>18573.048343999999</v>
       </c>
       <c r="G19" s="1">
-        <v>5.159180</v>
+        <v>5.1591800000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1160.250000</v>
+        <v>1160.25</v>
       </c>
       <c r="I19" s="1">
-        <v>-214.516000</v>
+        <v>-214.51599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>18583.242089</v>
+        <v>18583.242088999999</v>
       </c>
       <c r="L19" s="1">
-        <v>5.162012</v>
+        <v>5.1620119999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1186.920000</v>
+        <v>1186.92</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.674000</v>
+        <v>-148.67400000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>18593.493957</v>
+        <v>18593.493956999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.164859</v>
+        <v>5.1648589999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1194.420000</v>
+        <v>1194.42</v>
       </c>
       <c r="S19" s="1">
-        <v>-126.728000</v>
+        <v>-126.72799999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>18604.321566</v>
+        <v>18604.321565999999</v>
       </c>
       <c r="V19" s="1">
-        <v>5.167867</v>
+        <v>5.1678670000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1201.190000</v>
+        <v>1201.19</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.144000</v>
+        <v>-106.14400000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>18614.858649</v>
+        <v>18614.858649000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.170794</v>
+        <v>5.1707939999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1208.540000</v>
+        <v>1208.54</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.555200</v>
+        <v>-89.555199999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>18625.310771</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.173697</v>
+        <v>5.1736969999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1212.950000</v>
+        <v>1212.95</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.167900</v>
+        <v>-85.167900000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>18635.867125</v>
+        <v>18635.867125000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.176630</v>
+        <v>5.1766300000000003</v>
       </c>
       <c r="AL19" s="1">
-        <v>1219.850000</v>
+        <v>1219.8499999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.760900</v>
+        <v>-88.760900000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>18646.359990</v>
+        <v>18646.359990000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.179544</v>
+        <v>5.1795439999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1227.760000</v>
+        <v>1227.76</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.826000</v>
+        <v>-100.82599999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>18657.355305</v>
+        <v>18657.355305000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.182599</v>
+        <v>5.1825989999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.185000</v>
+        <v>-120.185</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>18668.398233</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.185666</v>
+        <v>5.1856660000000003</v>
       </c>
       <c r="BA19" s="1">
-        <v>1246.120000</v>
+        <v>1246.1199999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.636000</v>
+        <v>-137.636</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>18679.352378</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.188709</v>
+        <v>5.1887090000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1286.070000</v>
+        <v>1286.07</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.399000</v>
+        <v>-219.399</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>18689.955853</v>
+        <v>18689.955852999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.191654</v>
+        <v>5.1916539999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1355.200000</v>
+        <v>1355.2</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.362000</v>
+        <v>-355.36200000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>18700.840559</v>
       </c>
       <c r="BO19" s="1">
-        <v>5.194678</v>
+        <v>5.1946779999999997</v>
       </c>
       <c r="BP19" s="1">
-        <v>1468.340000</v>
+        <v>1468.34</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-577.207000</v>
+        <v>-577.20699999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>18711.443563</v>
+        <v>18711.443563000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.197623</v>
+        <v>5.1976230000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1598.600000</v>
+        <v>1598.6</v>
       </c>
       <c r="BV19" s="1">
-        <v>-828.626000</v>
+        <v>-828.62599999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>18722.381810</v>
+        <v>18722.381809999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.200662</v>
+        <v>5.2006620000000003</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1749.900000</v>
+        <v>1749.9</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1102.090000</v>
+        <v>-1102.0899999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>18735.133458</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.204204</v>
+        <v>5.2042039999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>2167.170000</v>
+        <v>2167.17</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1768.470000</v>
+        <v>-1768.47</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>18563.329917</v>
+        <v>18563.329916999999</v>
       </c>
       <c r="B20" s="1">
-        <v>5.156481</v>
+        <v>5.1564810000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>1138.770000</v>
+        <v>1138.77</v>
       </c>
       <c r="D20" s="1">
-        <v>-256.231000</v>
+        <v>-256.23099999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>18573.393526</v>
       </c>
       <c r="G20" s="1">
-        <v>5.159276</v>
+        <v>5.1592760000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>1159.980000</v>
+        <v>1159.98</v>
       </c>
       <c r="I20" s="1">
-        <v>-214.197000</v>
+        <v>-214.197</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>18583.589786</v>
       </c>
       <c r="L20" s="1">
-        <v>5.162108</v>
+        <v>5.1621079999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1186.930000</v>
+        <v>1186.93</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.558000</v>
+        <v>-148.55799999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>18593.844571</v>
+        <v>18593.844571000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.164957</v>
+        <v>5.1649570000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1194.420000</v>
+        <v>1194.42</v>
       </c>
       <c r="S20" s="1">
-        <v>-126.765000</v>
+        <v>-126.765</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>18604.974797</v>
+        <v>18604.974796999999</v>
       </c>
       <c r="V20" s="1">
-        <v>5.168049</v>
+        <v>5.1680489999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1201.300000</v>
+        <v>1201.3</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.000000</v>
+        <v>-106</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>18615.230609</v>
+        <v>18615.230608999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.170897</v>
+        <v>5.1708970000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1208.550000</v>
+        <v>1208.55</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.432300</v>
+        <v>-89.432299999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>18625.678832</v>
+        <v>18625.678832000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.173800</v>
+        <v>5.1738</v>
       </c>
       <c r="AG20" s="1">
-        <v>1213.020000</v>
+        <v>1213.02</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.197000</v>
+        <v>-85.197000000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>18636.211843</v>
+        <v>18636.211843000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.176726</v>
+        <v>5.1767260000000004</v>
       </c>
       <c r="AL20" s="1">
-        <v>1219.880000</v>
+        <v>1219.8800000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.740000</v>
+        <v>-88.74</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>18646.722566</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.179645</v>
+        <v>5.1796449999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1227.740000</v>
+        <v>1227.74</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.805000</v>
+        <v>-100.80500000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>18657.719367</v>
+        <v>18657.719367000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.182700</v>
+        <v>5.1826999999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>1237.710000</v>
+        <v>1237.71</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.192000</v>
+        <v>-120.19199999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>18668.808924</v>
+        <v>18668.808924000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.185780</v>
+        <v>5.1857800000000003</v>
       </c>
       <c r="BA20" s="1">
-        <v>1246.120000</v>
+        <v>1246.1199999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.689000</v>
+        <v>-137.68899999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>18679.808699</v>
+        <v>18679.808699000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.188836</v>
+        <v>5.1888360000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1286.100000</v>
+        <v>1286.0999999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.346000</v>
+        <v>-219.346</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>18690.297597</v>
+        <v>18690.297597000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.191749</v>
+        <v>5.1917489999999997</v>
       </c>
       <c r="BK20" s="1">
-        <v>1355.200000</v>
+        <v>1355.2</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.359000</v>
+        <v>-355.35899999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>18701.263149</v>
+        <v>18701.263148999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.194795</v>
+        <v>5.1947950000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1468.320000</v>
+        <v>1468.32</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-577.269000</v>
+        <v>-577.26900000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>18711.864639</v>
+        <v>18711.864638999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.197740</v>
+        <v>5.1977399999999996</v>
       </c>
       <c r="BU20" s="1">
-        <v>1598.590000</v>
+        <v>1598.59</v>
       </c>
       <c r="BV20" s="1">
-        <v>-828.576000</v>
+        <v>-828.57600000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>18722.830194</v>
+        <v>18722.830193999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.200786</v>
+        <v>5.2007859999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1749.890000</v>
+        <v>1749.89</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1102.160000</v>
+        <v>-1102.1600000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>18735.674132</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.204354</v>
+        <v>5.2043540000000004</v>
       </c>
       <c r="CE20" s="1">
-        <v>2166.990000</v>
+        <v>2166.9899999999998</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1766.220000</v>
+        <v>-1766.22</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>18563.670983</v>
       </c>
       <c r="B21" s="1">
-        <v>5.156575</v>
+        <v>5.1565750000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1139.150000</v>
+        <v>1139.1500000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-256.096000</v>
+        <v>-256.096</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>18573.736790</v>
+        <v>18573.736789999999</v>
       </c>
       <c r="G21" s="1">
-        <v>5.159371</v>
+        <v>5.1593710000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1159.860000</v>
+        <v>1159.8599999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-214.241000</v>
+        <v>-214.24100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>18584.237097</v>
+        <v>18584.237097000001</v>
       </c>
       <c r="L21" s="1">
-        <v>5.162288</v>
+        <v>5.1622880000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1187.070000</v>
+        <v>1187.07</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.613000</v>
+        <v>-148.613</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>18594.505738</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.165140</v>
+        <v>5.1651400000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1194.430000</v>
+        <v>1194.43</v>
       </c>
       <c r="S21" s="1">
-        <v>-126.877000</v>
+        <v>-126.877</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>18605.350797</v>
+        <v>18605.350796999999</v>
       </c>
       <c r="V21" s="1">
-        <v>5.168153</v>
+        <v>5.1681530000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1201.340000</v>
+        <v>1201.3399999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.182000</v>
+        <v>-106.182</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>18615.580287</v>
+        <v>18615.580287000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.170995</v>
+        <v>5.1709949999999996</v>
       </c>
       <c r="AB21" s="1">
-        <v>1208.460000</v>
+        <v>1208.46</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.348500</v>
+        <v>-89.348500000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>18626.023062</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.173895</v>
+        <v>5.1738949999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1212.950000</v>
+        <v>1212.95</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.157600</v>
+        <v>-85.157600000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>18636.564003</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.176823</v>
+        <v>5.1768229999999997</v>
       </c>
       <c r="AL21" s="1">
-        <v>1219.860000</v>
+        <v>1219.8599999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.755400</v>
+        <v>-88.755399999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>18647.139702</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.179761</v>
+        <v>5.1797610000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1227.730000</v>
+        <v>1227.73</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.804000</v>
+        <v>-100.804</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>18658.133526</v>
+        <v>18658.133526000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.182815</v>
+        <v>5.1828149999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>1237.680000</v>
+        <v>1237.68</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.220000</v>
+        <v>-120.22</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>18669.112967</v>
+        <v>18669.112967000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.185865</v>
+        <v>5.1858649999999997</v>
       </c>
       <c r="BA21" s="1">
-        <v>1246.090000</v>
+        <v>1246.0899999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.660000</v>
+        <v>-137.66</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>18680.076577</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.188910</v>
+        <v>5.1889099999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1286.090000</v>
+        <v>1286.0899999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.398000</v>
+        <v>-219.398</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>18690.671085</v>
+        <v>18690.671085000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.191853</v>
+        <v>5.1918530000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1355.240000</v>
+        <v>1355.24</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.364000</v>
+        <v>-355.36399999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>18701.661933</v>
+        <v>18701.661932999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.194906</v>
+        <v>5.1949059999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1468.400000</v>
+        <v>1468.4</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-577.241000</v>
+        <v>-577.24099999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>18712.289711</v>
+        <v>18712.289711000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.197858</v>
+        <v>5.1978580000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1598.570000</v>
+        <v>1598.57</v>
       </c>
       <c r="BV21" s="1">
-        <v>-828.461000</v>
+        <v>-828.46100000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>18723.251794</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.200903</v>
+        <v>5.2009030000000003</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1749.920000</v>
+        <v>1749.92</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1102.020000</v>
+        <v>-1102.02</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>18736.211792</v>
+        <v>18736.211791999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.204503</v>
+        <v>5.2045029999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2165.770000</v>
+        <v>2165.77</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1767.840000</v>
+        <v>-1767.84</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>18564.309795</v>
+        <v>18564.309795000001</v>
       </c>
       <c r="B22" s="1">
-        <v>5.156753</v>
+        <v>5.1567530000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1139.160000</v>
+        <v>1139.1600000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-256.394000</v>
+        <v>-256.39400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>18574.387509</v>
       </c>
       <c r="G22" s="1">
-        <v>5.159552</v>
+        <v>5.1595519999999997</v>
       </c>
       <c r="H22" s="1">
-        <v>1160.630000</v>
+        <v>1160.6300000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-214.762000</v>
+        <v>-214.762</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>18584.626423</v>
+        <v>18584.626423000002</v>
       </c>
       <c r="L22" s="1">
-        <v>5.162396</v>
+        <v>5.1623960000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1186.990000</v>
+        <v>1186.99</v>
       </c>
       <c r="N22" s="1">
-        <v>-148.804000</v>
+        <v>-148.804</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>18594.891169</v>
+        <v>18594.891168999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.165248</v>
+        <v>5.1652480000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1194.330000</v>
+        <v>1194.33</v>
       </c>
       <c r="S22" s="1">
-        <v>-126.786000</v>
+        <v>-126.786</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>18605.692732</v>
       </c>
       <c r="V22" s="1">
-        <v>5.168248</v>
+        <v>5.1682480000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1201.370000</v>
+        <v>1201.3699999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.168000</v>
+        <v>-106.16800000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>18615.929935</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.171092</v>
+        <v>5.1710919999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>1208.440000</v>
+        <v>1208.44</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.364100</v>
+        <v>-89.364099999999993</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>18626.367249</v>
+        <v>18626.367248999999</v>
       </c>
       <c r="AF22" s="1">
         <v>5.173991</v>
       </c>
       <c r="AG22" s="1">
-        <v>1212.900000</v>
+        <v>1212.9000000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.183400</v>
+        <v>-85.183400000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>18636.991554</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.176942</v>
+        <v>5.1769420000000004</v>
       </c>
       <c r="AL22" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.742100</v>
+        <v>-88.742099999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>18647.444244</v>
+        <v>18647.444243999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.179846</v>
+        <v>5.1798460000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1227.740000</v>
+        <v>1227.74</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.801000</v>
+        <v>-100.801</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>18658.449515</v>
       </c>
       <c r="AU22" s="1">
-        <v>5.182903</v>
+        <v>5.1829029999999996</v>
       </c>
       <c r="AV22" s="1">
-        <v>1237.660000</v>
+        <v>1237.6600000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.200000</v>
+        <v>-120.2</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>18669.473559</v>
+        <v>18669.473558999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.185965</v>
+        <v>5.1859650000000004</v>
       </c>
       <c r="BA22" s="1">
-        <v>1246.130000</v>
+        <v>1246.1300000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.667000</v>
+        <v>-137.667</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>18680.435972</v>
+        <v>18680.435971999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.189010</v>
+        <v>5.1890099999999997</v>
       </c>
       <c r="BF22" s="1">
-        <v>1286.060000</v>
+        <v>1286.06</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.383000</v>
+        <v>-219.38300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>18691.068533</v>
+        <v>18691.068533000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.191963</v>
+        <v>5.1919630000000003</v>
       </c>
       <c r="BK22" s="1">
-        <v>1355.220000</v>
+        <v>1355.22</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.383000</v>
+        <v>-355.38299999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>18702.087538</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.195024</v>
+        <v>5.1950240000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1468.360000</v>
+        <v>1468.36</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-577.192000</v>
+        <v>-577.19200000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>18712.718255</v>
       </c>
       <c r="BT22" s="1">
-        <v>5.197977</v>
+        <v>5.1979769999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1598.500000</v>
+        <v>1598.5</v>
       </c>
       <c r="BV22" s="1">
-        <v>-828.414000</v>
+        <v>-828.41399999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>18723.675873</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.201021</v>
+        <v>5.2010209999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1749.990000</v>
+        <v>1749.99</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1102.040000</v>
+        <v>-1102.04</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>18736.755374</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.204654</v>
+        <v>5.2046539999999997</v>
       </c>
       <c r="CE22" s="1">
-        <v>2167.980000</v>
+        <v>2167.98</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1767.970000</v>
+        <v>-1767.97</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>18564.695219</v>
+        <v>18564.695219000001</v>
       </c>
       <c r="B23" s="1">
-        <v>5.156860</v>
+        <v>5.15686</v>
       </c>
       <c r="C23" s="1">
-        <v>1139.190000</v>
+        <v>1139.19</v>
       </c>
       <c r="D23" s="1">
-        <v>-256.531000</v>
+        <v>-256.53100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>18574.772902</v>
+        <v>18574.772902000001</v>
       </c>
       <c r="G23" s="1">
-        <v>5.159659</v>
+        <v>5.1596590000000004</v>
       </c>
       <c r="H23" s="1">
-        <v>1160.020000</v>
+        <v>1160.02</v>
       </c>
       <c r="I23" s="1">
-        <v>-214.185000</v>
+        <v>-214.185</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>18584.972135</v>
       </c>
       <c r="L23" s="1">
-        <v>5.162492</v>
+        <v>5.1624920000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>1186.900000</v>
+        <v>1186.9000000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.772000</v>
+        <v>-148.77199999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>18595.342987</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.165373</v>
+        <v>5.1653729999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1194.380000</v>
+        <v>1194.3800000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-126.772000</v>
+        <v>-126.77200000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>18606.039708</v>
       </c>
       <c r="V23" s="1">
-        <v>5.168344</v>
+        <v>5.1683440000000003</v>
       </c>
       <c r="W23" s="1">
-        <v>1201.350000</v>
+        <v>1201.3499999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.136000</v>
+        <v>-106.136</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>18616.347085</v>
+        <v>18616.347085000001</v>
       </c>
       <c r="AA23" s="1">
         <v>5.171208</v>
       </c>
       <c r="AB23" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.498200</v>
+        <v>-89.498199999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>18626.782437</v>
+        <v>18626.782437000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.174106</v>
+        <v>5.1741060000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1213.010000</v>
+        <v>1213.01</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.146800</v>
+        <v>-85.146799999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>18637.271298</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.177020</v>
+        <v>5.1770199999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>1219.860000</v>
+        <v>1219.8599999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.755400</v>
+        <v>-88.755399999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>18647.802388</v>
@@ -5998,225 +6414,225 @@
         <v>5.179945</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1227.730000</v>
+        <v>1227.73</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.788000</v>
+        <v>-100.788</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>18658.813077</v>
+        <v>18658.813076999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>5.183004</v>
+        <v>5.1830040000000004</v>
       </c>
       <c r="AV23" s="1">
-        <v>1237.670000</v>
+        <v>1237.67</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.203000</v>
+        <v>-120.203</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>18669.830183</v>
+        <v>18669.830182999998</v>
       </c>
       <c r="AZ23" s="1">
         <v>5.186064</v>
       </c>
       <c r="BA23" s="1">
-        <v>1246.120000</v>
+        <v>1246.1199999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.681000</v>
+        <v>-137.68100000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>18681.160792</v>
+        <v>18681.160791999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.189211</v>
+        <v>5.1892110000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1286.070000</v>
+        <v>1286.07</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.381000</v>
+        <v>-219.381</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>18691.827258</v>
+        <v>18691.827258000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.192174</v>
+        <v>5.1921739999999996</v>
       </c>
       <c r="BK23" s="1">
-        <v>1355.210000</v>
+        <v>1355.21</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.363000</v>
+        <v>-355.363</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>18702.474876</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.195132</v>
+        <v>5.1951320000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1468.410000</v>
+        <v>1468.41</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-577.202000</v>
+        <v>-577.202</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>18713.144318</v>
+        <v>18713.144317999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.198096</v>
+        <v>5.1980959999999996</v>
       </c>
       <c r="BU23" s="1">
-        <v>1598.600000</v>
+        <v>1598.6</v>
       </c>
       <c r="BV23" s="1">
-        <v>-828.355000</v>
+        <v>-828.35500000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>18724.121814</v>
+        <v>18724.121813999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.201145</v>
+        <v>5.2011450000000004</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1750.080000</v>
+        <v>1750.08</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1102.020000</v>
+        <v>-1102.02</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>18737.600590</v>
+        <v>18737.600589999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.204889</v>
+        <v>5.2048889999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>2165.290000</v>
+        <v>2165.29</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1767.790000</v>
+        <v>-1767.79</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>18565.036931</v>
+        <v>18565.036930999999</v>
       </c>
       <c r="B24" s="1">
         <v>5.156955</v>
       </c>
       <c r="C24" s="1">
-        <v>1139.000000</v>
+        <v>1139</v>
       </c>
       <c r="D24" s="1">
-        <v>-256.153000</v>
+        <v>-256.15300000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>18575.116170</v>
+        <v>18575.116170000001</v>
       </c>
       <c r="G24" s="1">
-        <v>5.159754</v>
+        <v>5.1597540000000004</v>
       </c>
       <c r="H24" s="1">
-        <v>1159.980000</v>
+        <v>1159.98</v>
       </c>
       <c r="I24" s="1">
-        <v>-214.025000</v>
+        <v>-214.02500000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>18585.317878</v>
+        <v>18585.317878000002</v>
       </c>
       <c r="L24" s="1">
-        <v>5.162588</v>
+        <v>5.1625880000000004</v>
       </c>
       <c r="M24" s="1">
-        <v>1187.120000</v>
+        <v>1187.1199999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.637000</v>
+        <v>-148.637</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>18595.592969</v>
+        <v>18595.592969000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.165442</v>
+        <v>5.1654419999999996</v>
       </c>
       <c r="R24" s="1">
-        <v>1194.470000</v>
+        <v>1194.47</v>
       </c>
       <c r="S24" s="1">
-        <v>-126.746000</v>
+        <v>-126.746</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>18606.446955</v>
+        <v>18606.446954999999</v>
       </c>
       <c r="V24" s="1">
-        <v>5.168457</v>
+        <v>5.1684570000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1201.380000</v>
+        <v>1201.3800000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.195000</v>
+        <v>-106.19499999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>18616.627309</v>
       </c>
       <c r="AA24" s="1">
-        <v>5.171285</v>
+        <v>5.1712850000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1208.460000</v>
+        <v>1208.46</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.471300</v>
+        <v>-89.471299999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>18627.075041</v>
@@ -6225,255 +6641,255 @@
         <v>5.174188</v>
       </c>
       <c r="AG24" s="1">
-        <v>1213.000000</v>
+        <v>1213</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.119100</v>
+        <v>-85.119100000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>18637.622004</v>
+        <v>18637.622004000001</v>
       </c>
       <c r="AK24" s="1">
         <v>5.177117</v>
       </c>
       <c r="AL24" s="1">
-        <v>1219.880000</v>
+        <v>1219.8800000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.706800</v>
+        <v>-88.706800000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>18648.163444</v>
+        <v>18648.163444000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.180045</v>
+        <v>5.1800449999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1227.750000</v>
+        <v>1227.75</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.806000</v>
+        <v>-100.806</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>18659.177605</v>
+        <v>18659.177605000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>5.183105</v>
+        <v>5.1831050000000003</v>
       </c>
       <c r="AV24" s="1">
-        <v>1237.690000</v>
+        <v>1237.69</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.205000</v>
+        <v>-120.205</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>18670.549878</v>
+        <v>18670.549878000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.186264</v>
+        <v>5.1862640000000004</v>
       </c>
       <c r="BA24" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.692000</v>
+        <v>-137.69200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>18681.548663</v>
+        <v>18681.548663000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.189319</v>
+        <v>5.1893190000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1286.080000</v>
+        <v>1286.08</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.381000</v>
+        <v>-219.381</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>18692.222074</v>
+        <v>18692.222074000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.192284</v>
+        <v>5.1922839999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1355.210000</v>
+        <v>1355.21</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.372000</v>
+        <v>-355.37200000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>18702.894987</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.195249</v>
+        <v>5.1952489999999996</v>
       </c>
       <c r="BP24" s="1">
-        <v>1468.390000</v>
+        <v>1468.39</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-577.195000</v>
+        <v>-577.19500000000005</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>18713.872941</v>
+        <v>18713.872941000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.198298</v>
+        <v>5.1982980000000003</v>
       </c>
       <c r="BU24" s="1">
-        <v>1598.500000</v>
+        <v>1598.5</v>
       </c>
       <c r="BV24" s="1">
-        <v>-828.349000</v>
+        <v>-828.34900000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>18724.848676</v>
+        <v>18724.848676000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>5.201347</v>
+        <v>5.2013470000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1749.890000</v>
+        <v>1749.89</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1102.170000</v>
+        <v>-1102.17</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>18737.833710</v>
+        <v>18737.833709999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.204954</v>
+        <v>5.2049539999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2166.190000</v>
+        <v>2166.19</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1767.720000</v>
+        <v>-1767.72</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>18565.379675</v>
       </c>
       <c r="B25" s="1">
-        <v>5.157050</v>
+        <v>5.1570499999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1139.260000</v>
+        <v>1139.26</v>
       </c>
       <c r="D25" s="1">
-        <v>-256.159000</v>
+        <v>-256.15899999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>18575.460859</v>
+        <v>18575.460858999999</v>
       </c>
       <c r="G25" s="1">
-        <v>5.159850</v>
+        <v>5.1598499999999996</v>
       </c>
       <c r="H25" s="1">
-        <v>1159.980000</v>
+        <v>1159.98</v>
       </c>
       <c r="I25" s="1">
-        <v>-214.455000</v>
+        <v>-214.45500000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>18585.737959</v>
+        <v>18585.737958999998</v>
       </c>
       <c r="L25" s="1">
-        <v>5.162705</v>
+        <v>5.1627049999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1186.990000</v>
+        <v>1186.99</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.730000</v>
+        <v>-148.72999999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>18596.288856</v>
+        <v>18596.288855999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.165636</v>
+        <v>5.1656360000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1194.470000</v>
+        <v>1194.47</v>
       </c>
       <c r="S25" s="1">
-        <v>-126.797000</v>
+        <v>-126.797</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>18606.748490</v>
+        <v>18606.748490000002</v>
       </c>
       <c r="V25" s="1">
-        <v>5.168541</v>
+        <v>5.1685410000000003</v>
       </c>
       <c r="W25" s="1">
-        <v>1201.310000</v>
+        <v>1201.31</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.171000</v>
+        <v>-106.17100000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>18616.976990</v>
+        <v>18616.976989999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.171382</v>
+        <v>5.1713820000000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>1208.320000</v>
+        <v>1208.32</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.597900</v>
+        <v>-89.597899999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>18627.419759</v>
@@ -6482,422 +6898,423 @@
         <v>5.174283</v>
       </c>
       <c r="AG25" s="1">
-        <v>1212.900000</v>
+        <v>1212.9000000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.120700</v>
+        <v>-85.120699999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>18637.970690</v>
+        <v>18637.970689999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.177214</v>
+        <v>5.1772140000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1219.850000</v>
+        <v>1219.8499999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.743900</v>
+        <v>-88.743899999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>18648.882178</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.180245</v>
+        <v>5.1802450000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1227.760000</v>
+        <v>1227.76</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.799000</v>
+        <v>-100.79900000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>18659.907253</v>
+        <v>18659.907253000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.183308</v>
+        <v>5.1833080000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1237.700000</v>
+        <v>1237.7</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.201000</v>
+        <v>-120.20099999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>18670.910470</v>
+        <v>18670.910469999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.186364</v>
+        <v>5.1863640000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.682000</v>
+        <v>-137.68199999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>18681.930087</v>
+        <v>18681.930087000001</v>
       </c>
       <c r="BE25" s="1">
         <v>5.189425</v>
       </c>
       <c r="BF25" s="1">
-        <v>1286.090000</v>
+        <v>1286.0899999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.399000</v>
+        <v>-219.399</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>18692.601736</v>
+        <v>18692.601736000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.192389</v>
+        <v>5.1923890000000004</v>
       </c>
       <c r="BK25" s="1">
-        <v>1355.200000</v>
+        <v>1355.2</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.365000</v>
+        <v>-355.36500000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>18703.607739</v>
+        <v>18703.607738999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.195447</v>
+        <v>5.1954469999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1468.380000</v>
+        <v>1468.38</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.218000</v>
+        <v>-577.21799999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>18713.989005</v>
+        <v>18713.989004999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.198330</v>
+        <v>5.1983300000000003</v>
       </c>
       <c r="BU25" s="1">
-        <v>1598.530000</v>
+        <v>1598.53</v>
       </c>
       <c r="BV25" s="1">
-        <v>-828.226000</v>
+        <v>-828.226</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>18724.985344</v>
+        <v>18724.985344000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.201385</v>
+        <v>5.2013850000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1749.920000</v>
+        <v>1749.92</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1101.950000</v>
+        <v>-1101.95</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>18738.352493</v>
+        <v>18738.352492999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.205098</v>
+        <v>5.2050979999999996</v>
       </c>
       <c r="CE25" s="1">
-        <v>2167.310000</v>
+        <v>2167.31</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1768.050000</v>
+        <v>-1768.05</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>18565.798288</v>
+        <v>18565.798288000002</v>
       </c>
       <c r="B26" s="1">
-        <v>5.157166</v>
+        <v>5.1571660000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1139.100000</v>
+        <v>1139.0999999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-256.003000</v>
+        <v>-256.00299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>18575.889396</v>
+        <v>18575.889395999999</v>
       </c>
       <c r="G26" s="1">
-        <v>5.159969</v>
+        <v>5.1599690000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1160.440000</v>
+        <v>1160.44</v>
       </c>
       <c r="I26" s="1">
-        <v>-214.484000</v>
+        <v>-214.48400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>18586.029109</v>
+        <v>18586.029108999999</v>
       </c>
       <c r="L26" s="1">
-        <v>5.162786</v>
+        <v>5.1627859999999997</v>
       </c>
       <c r="M26" s="1">
-        <v>1186.960000</v>
+        <v>1186.96</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.845000</v>
+        <v>-148.845</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>18596.639528</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.165733</v>
+        <v>5.1657330000000004</v>
       </c>
       <c r="R26" s="1">
-        <v>1194.420000</v>
+        <v>1194.42</v>
       </c>
       <c r="S26" s="1">
-        <v>-126.873000</v>
+        <v>-126.873</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>18607.091723</v>
+        <v>18607.091723000001</v>
       </c>
       <c r="V26" s="1">
-        <v>5.168637</v>
+        <v>5.1686370000000004</v>
       </c>
       <c r="W26" s="1">
-        <v>1201.280000</v>
+        <v>1201.28</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.231000</v>
+        <v>-106.23099999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>18617.320220</v>
+        <v>18617.320220000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.171478</v>
+        <v>5.1714779999999996</v>
       </c>
       <c r="AB26" s="1">
-        <v>1208.410000</v>
+        <v>1208.4100000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.511400</v>
+        <v>-89.511399999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>18627.764510</v>
+        <v>18627.764510000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.174379</v>
+        <v>5.1743790000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1212.950000</v>
+        <v>1212.95</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.157500</v>
+        <v>-85.157499999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>18638.663600</v>
+        <v>18638.6636</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.177407</v>
+        <v>5.1774069999999996</v>
       </c>
       <c r="AL26" s="1">
-        <v>1219.870000</v>
+        <v>1219.8699999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.746100</v>
+        <v>-88.746099999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>18649.240754</v>
+        <v>18649.240753999999</v>
       </c>
       <c r="AP26" s="1">
         <v>5.180345</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1227.720000</v>
+        <v>1227.72</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.808000</v>
+        <v>-100.80800000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>18660.287652</v>
+        <v>18660.287651999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.183413</v>
+        <v>5.1834129999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1237.700000</v>
+        <v>1237.7</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.207000</v>
+        <v>-120.20699999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>18671.267591</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.186463</v>
+        <v>5.1864629999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1246.090000</v>
+        <v>1246.0899999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.684000</v>
+        <v>-137.684</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>18682.591782</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.189609</v>
+        <v>5.1896089999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1286.070000</v>
+        <v>1286.07</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.389000</v>
+        <v>-219.38900000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>18693.275080</v>
+        <v>18693.275079999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.192576</v>
+        <v>5.1925759999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1355.240000</v>
+        <v>1355.24</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.378000</v>
+        <v>-355.37799999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>18703.717354</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.195477</v>
+        <v>5.1954770000000003</v>
       </c>
       <c r="BP26" s="1">
-        <v>1468.370000</v>
+        <v>1468.37</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-577.232000</v>
+        <v>-577.23199999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>18714.425515</v>
+        <v>18714.425514999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.198452</v>
+        <v>5.1984519999999996</v>
       </c>
       <c r="BU26" s="1">
-        <v>1598.510000</v>
+        <v>1598.51</v>
       </c>
       <c r="BV26" s="1">
-        <v>-828.099000</v>
+        <v>-828.09900000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>18725.412894</v>
+        <v>18725.412894000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.201504</v>
+        <v>5.2015039999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1749.780000</v>
+        <v>1749.78</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1102.070000</v>
+        <v>-1102.07</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>18738.871345</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.205242</v>
+        <v>5.2052420000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2167.430000</v>
+        <v>2167.4299999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1766.670000</v>
+        <v>-1766.67</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>